--- a/data/trans_dic/P22$mutaSS-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,4</t>
+          <t>1,86; 5,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,24</t>
+          <t>1,28; 4,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,24</t>
+          <t>0,25; 2,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,68</t>
+          <t>1,02; 6,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,87</t>
+          <t>3,79; 8,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,22</t>
+          <t>1,34; 4,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,98</t>
+          <t>0,67; 3,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,01</t>
+          <t>3,15; 5,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,74</t>
+          <t>1,54; 3,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,22</t>
+          <t>0,62; 2,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,85</t>
+          <t>0,61; 3,97</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,11</t>
+          <t>1,66; 4,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,59</t>
+          <t>1,89; 4,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,23</t>
+          <t>0,98; 3,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,19</t>
+          <t>0,58; 5,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,34</t>
+          <t>2,29; 5,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,17</t>
+          <t>0,83; 3,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,09</t>
+          <t>0,29; 2,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,62</t>
+          <t>0,19; 1,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,15</t>
+          <t>2,17; 4,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,48</t>
+          <t>1,61; 3,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,21</t>
+          <t>0,83; 2,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,75</t>
+          <t>0,53; 2,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,92</t>
+          <t>2,78; 6,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,19</t>
+          <t>1,43; 4,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,43</t>
+          <t>1,66; 4,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,43</t>
+          <t>1,96; 5,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,94</t>
+          <t>2,22; 5,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,07</t>
+          <t>0,88; 3,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,19</t>
+          <t>1,01; 3,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,3</t>
+          <t>1,25; 3,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,02</t>
+          <t>2,76; 4,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,26</t>
+          <t>1,42; 3,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,24</t>
+          <t>1,61; 3,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,88</t>
+          <t>1,81; 3,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,99</t>
+          <t>3,68; 7,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,0</t>
+          <t>2,07; 5,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,16</t>
+          <t>1,55; 4,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,25</t>
+          <t>1,03; 4,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,34</t>
+          <t>1,4; 4,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,22</t>
+          <t>1,98; 5,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,12</t>
+          <t>0,47; 2,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,86</t>
+          <t>0,61; 1,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,35</t>
+          <t>2,92; 5,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,64</t>
+          <t>2,41; 4,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,74</t>
+          <t>1,14; 2,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,86</t>
+          <t>1,17; 2,77</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,61</t>
+          <t>2,05; 5,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,54</t>
+          <t>1,42; 4,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,33</t>
+          <t>1,89; 5,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,24</t>
+          <t>1,09; 3,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,56</t>
+          <t>2,63; 6,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,85</t>
+          <t>0,7; 3,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,42</t>
+          <t>0,72; 3,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,21</t>
+          <t>2,06; 4,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,3</t>
+          <t>2,71; 5,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,39</t>
+          <t>1,3; 3,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,81</t>
+          <t>1,6; 3,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,41</t>
+          <t>1,79; 3,39</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,43</t>
+          <t>1,57; 5,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,37</t>
+          <t>0,66; 3,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,42</t>
+          <t>0,76; 4,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,74</t>
+          <t>1,93; 4,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,9</t>
+          <t>0,83; 4,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,01</t>
+          <t>0,8; 3,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,25</t>
+          <t>0,55; 3,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,47</t>
+          <t>0,84; 4,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,88</t>
+          <t>1,48; 3,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,32</t>
+          <t>1,03; 3,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,88</t>
+          <t>0,86; 2,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,12</t>
+          <t>1,33; 4,09</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,17</t>
+          <t>0,39; 4,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,27</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,48</t>
+          <t>0,63; 3,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,59</t>
+          <t>1,59; 4,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,37</t>
+          <t>0,34; 3,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,82</t>
+          <t>0,54; 3,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,49</t>
+          <t>0,84; 2,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,08</t>
+          <t>0,67; 3,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,35</t>
+          <t>0,5; 2,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,22</t>
+          <t>0,39; 2,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,99</t>
+          <t>1,36; 2,96</t>
         </is>
       </c>
     </row>
@@ -1704,37 +1705,37 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,27</t>
+          <t>2,97; 4,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,3</t>
+          <t>2,14; 3,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,88</t>
+          <t>1,79; 2,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,38</t>
+          <t>2,03; 3,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,99</t>
+          <t>2,79; 4,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,57</t>
+          <t>1,58; 2,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,72</t>
+          <t>0,95; 1,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,22 +1745,22 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,93</t>
+          <t>3,01; 3,99</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,02; 2,75</t>
+          <t>2,0; 2,79</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,11</t>
+          <t>1,49; 2,14</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,55</t>
+          <t>1,78; 2,54</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Mutualidad de Estado (Seguridad Social)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16296</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10651</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11504</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25746</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10739</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5826</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42042</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21389</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9881</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12558</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9156; 26170</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5782; 20520</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1041; 9979</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4080; 25691</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17701; 37622</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5785; 18486</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2633; 12597</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5343</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30234; 56057</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13585; 32257</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5050; 17420</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4364; 28343</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19634</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20662</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11362</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8458</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21904</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10886</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3513</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41539</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31548</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15938</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11971</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12177; 31503</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12990; 31492</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5787; 18065</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2472; 21197</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14328; 33531</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5078; 19416</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1617; 12076</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>968; 8919</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29493; 54823</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20944; 44199</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9520; 25783</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4929; 24217</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26579</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17317</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18750</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17460</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23588</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12523</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12117</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11213</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50167</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29840</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30868</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28673</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17734; 38519</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9725; 27964</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11098; 30516</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10505; 28789</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15332; 34953</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6242; 21615</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6676; 21058</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6802; 17857</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36619; 66035</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19732; 45087</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21446; 43565</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19544; 41703</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>28382</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>21903</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16575</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23431</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13460</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19731</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8240</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>41842</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>41633</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23867</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>31671</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19057; 41110</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12730; 33201</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10002; 26644</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9144; 37417</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7208; 22267</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12226; 31298</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3074; 14232</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4373; 13372</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30119; 56329</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>29661; 58109</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>14765; 35470</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18712; 44400</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13671</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11175</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15821</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11063</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17601</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8125</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8596</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16550</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>31272</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19300</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24417</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27613</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7945; 21504</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6091; 19731</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8975; 25152</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6134; 18940</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10620; 26708</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3135; 16195</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3562; 17435</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11220; 23220</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>21367; 43154</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11380; 30473</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15560; 36563</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>19820; 37476</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8984</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6092</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6482</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11408</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6698</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6760</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5317</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15701</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>15682</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12852</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>11799</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>27109</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4591; 15681</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2041; 12252</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2557; 13434</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7101; 18270</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2832; 14292</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2828; 13660</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2087; 11656</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5138; 29361</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9420; 24700</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6835; 22326</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6125; 19956</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>12973; 39940</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3546</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2126</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>7825</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5415</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>6468</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>8019</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>7541</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>6416</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>14293</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>821; 10368</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7517</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1632; 8571</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4491; 13413</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1125; 11054</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2109; 12043</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 11104</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3572; 11106</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3650; 16731</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3219; 14082</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2529; 14196</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>9638; 21003</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>117093</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>89925</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>77242</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>91149</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>113471</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>74178</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>45944</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>62739</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>230564</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>164103</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>123186</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>153888</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>97240; 140671</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>73191; 112473</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>60680; 96571</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>70274; 116316</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>94062; 136296</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>56292; 93592</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>33448; 61918</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>48184; 77324</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>200172; 265303</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>139526; 194698</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>103529; 148426</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>126393; 180810</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>